--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Bates_(botaniste)/Frederick_Bates_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Bates_(botaniste)/Frederick_Bates_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Bates est un brasseur et un naturaliste britannique, né le 18 novembre 1829 à Leicester et mort le 6 octobre 1903 à Chiswick.
 Il est le frère cadet de l’entomologiste Henry Walter Bates (1825-1892). Il dirige une brasserie à Leicester. Entomologiste amateur, il s’intéresse au Heteromera (en) et constitue des collections de Cicindelidae et d’autres coléoptères. Il s’intéresse à la fin de sa vie aux orchidées et aux algues.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anthony Musgrave, Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of News South Wales, Sydney, 1932, VIII-380 p.</t>
         </is>
